--- a/Template gráficos.xlsx
+++ b/Template gráficos.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAED520-0662-4F42-A5EE-385A8BACFCB5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9810D-E608-477A-9A21-94AFF4A1DA7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problema1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problema1 - 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Problema2" sheetId="2" r:id="rId3"/>
+    <sheet name="Problema3" sheetId="3" r:id="rId4"/>
+    <sheet name="Problema4" sheetId="4" r:id="rId5"/>
+    <sheet name="Problema5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Custo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Tempo</t>
   </si>
@@ -32,12 +34,6 @@
   </si>
   <si>
     <t>Nós expandidos</t>
-  </si>
-  <si>
-    <t>Profundidade atingida</t>
-  </si>
-  <si>
-    <t>Procura em profundidade primeiro</t>
   </si>
   <si>
     <t>A*</t>
@@ -52,23 +48,53 @@
     <t>ILDS</t>
   </si>
   <si>
-    <t>ILDS Melhorada</t>
+    <t>Número de Turnos</t>
   </si>
   <si>
-    <t>1 - Samp</t>
+    <t>Profundidade Primeiro</t>
+  </si>
+  <si>
+    <t>Largura Primeiro</t>
+  </si>
+  <si>
+    <t>Profundidade Iterativa</t>
+  </si>
+  <si>
+    <t>Número de turnos</t>
+  </si>
+  <si>
+    <t>Número de nós gerados</t>
+  </si>
+  <si>
+    <t>Número de nós expandidos</t>
+  </si>
+  <si>
+    <t>Tempo real</t>
+  </si>
+  <si>
+    <t>Tempo de processamento</t>
+  </si>
+  <si>
+    <t>Mémoria utilizada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +152,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Problema 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -162,83 +214,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Custo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan1!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Procura em profundidade primeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A*</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>IDA*</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sondagem Iterativa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ILDS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ILDS Melhorada</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1 - Samp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BCC-4DE4-A6A2-CB47B4879FBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$A$3</c:f>
+              <c:f>Problema1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo</c:v>
+                  <c:v>Nós gerados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -255,45 +239,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$B$1:$H$1</c:f>
+              <c:f>Problema1!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Procura em profundidade primeiro</c:v>
+                  <c:v>Profundidade Primeiro</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>A*</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>IDA*</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Sondagem Iterativa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ILDS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ILDS Melhorada</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1 - Samp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$B$3:$H$3</c:f>
+              <c:f>Problema1!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BCC-4DE4-A6A2-CB47B4879FBF}"/>
+              <c16:uniqueId val="{00000001-0740-400F-B91B-7E063317D876}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -302,11 +307,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$A$4</c:f>
+              <c:f>Problema1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nós gerados</c:v>
+                  <c:v>Nós expandidos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -323,181 +328,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$B$1:$H$1</c:f>
+              <c:f>Problema1!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Procura em profundidade primeiro</c:v>
+                  <c:v>Profundidade Primeiro</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>A*</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>IDA*</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Sondagem Iterativa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ILDS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ILDS Melhorada</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1 - Samp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$B$4:$H$4</c:f>
+              <c:f>Problema1!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9BCC-4DE4-A6A2-CB47B4879FBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nós expandidos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan1!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Procura em profundidade primeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A*</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>IDA*</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sondagem Iterativa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ILDS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ILDS Melhorada</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1 - Samp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9BCC-4DE4-A6A2-CB47B4879FBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profundidade atingida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan1!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Procura em profundidade primeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A*</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>IDA*</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sondagem Iterativa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ILDS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ILDS Melhorada</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1 - Samp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9BCC-4DE4-A6A2-CB47B4879FBF}"/>
+              <c16:uniqueId val="{00000002-0740-400F-B91B-7E063317D876}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -509,13 +399,224 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="380674160"/>
-        <c:axId val="380675144"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="493119304"/>
+        <c:axId val="365428664"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de Turnos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema1!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0740-400F-B91B-7E063317D876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0740-400F-B91B-7E063317D876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="499624280"/>
+        <c:axId val="499622640"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="380674160"/>
+        <c:axId val="493119304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +659,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380675144"/>
+        <c:crossAx val="365428664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -566,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380675144"/>
+        <c:axId val="365428664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,6 +687,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Número de nós expandidos/Gerados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -617,10 +773,124 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380674160"/>
+        <c:crossAx val="493119304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="499622640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo/Número de Turnos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499624280"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="499624280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="499622640"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -704,6 +974,4031 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Problema 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Problema1 - 2'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mémoria utilizada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Problema1 - 2'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Problema1 - 2'!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3079024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3111520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3079136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5307248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5339824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-812E-4B5D-B73B-873D2F57313E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="496425384"/>
+        <c:axId val="496428664"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Problema1 - 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Problema1 - 2'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Problema1 - 2'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-812E-4B5D-B73B-873D2F57313E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Problema1 - 2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo de processamento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Problema1 - 2'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Problema1 - 2'!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2694999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7352999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6652000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8361000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1050000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3999999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-812E-4B5D-B73B-873D2F57313E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="644231408"/>
+        <c:axId val="496435880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="496425384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496428664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496428664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496425384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496435880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644231408"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="644231408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496435880"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Problema 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema2!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F52-4C54-A4B7-DC3ADD825A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema2!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F52-4C54-A4B7-DC3ADD825A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="494286752"/>
+        <c:axId val="494285768"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de turnos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema2!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F52-4C54-A4B7-DC3ADD825A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema2!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9F52-4C54-A4B7-DC3ADD825A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="577539232"/>
+        <c:axId val="577535624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="494286752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494285768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494285768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Número de nós expandidos/Gerados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494286752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="577535624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo/Número de Turnos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577539232"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="577539232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="577535624"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Problema 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema3!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema3!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5096-43E7-988A-97DCEFCC1D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema3!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema3!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5096-43E7-988A-97DCEFCC1D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="493273544"/>
+        <c:axId val="493274200"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de turnos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema3!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema3!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5096-43E7-988A-97DCEFCC1D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema3!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema3!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5096-43E7-988A-97DCEFCC1D8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="502939728"/>
+        <c:axId val="496215720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493273544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493274200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493274200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Número de nós expandidos/Gerados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493273544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496215720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo/Número de Turnos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502939728"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="502939728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496215720"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Problema 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema4!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema4!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C14-4B48-A1CA-F8D03EB876E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema4!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema4!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C14-4B48-A1CA-F8D03EB876E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="498715880"/>
+        <c:axId val="498711288"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema4!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de turnos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema4!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C14-4B48-A1CA-F8D03EB876E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema4!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema4!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C14-4B48-A1CA-F8D03EB876E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="498621656"/>
+        <c:axId val="499622312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498715880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498711288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498711288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Número de nós expandidos/Gerados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498715880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="499622312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo/Número de Turnos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498621656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="498621656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="499622312"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Problema 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós gerados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema5!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>479557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C63-4F82-A2B4-E85913C327F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema5!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de nós expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema5!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>480250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C63-4F82-A2B4-E85913C327F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="496216376"/>
+        <c:axId val="501813288"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de turnos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema5!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C63-4F82-A2B4-E85913C327F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Problema5!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Problema5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Profundidade Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Largura Primeiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IDA*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Profundidade Iterativa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ILDS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sondagem Iterativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Problema5!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C63-4F82-A2B4-E85913C327F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="496217360"/>
+        <c:axId val="496216704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="496216376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501813288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501813288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Número de nós expandidos/Gerados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496216376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496216704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo/Número de Turnos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496217360"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="496217360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496216704"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -744,8 +5039,2738 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1252,22 +8277,227 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FA2D73-5E0A-49FF-95AA-3B6222F69FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11FEF50-8DDD-408E-98F3-185FDBF750F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACD893F-58FB-4CF8-ACDB-DF31F0F6F59C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0A07BB-5196-41CB-BC93-915FF04B9C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAB1DCE-2413-49D9-B5A8-17A21D35B62B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80DD951-A7C9-4C2E-BAFD-362A0D7D1882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E003C4BA-B571-43AC-A187-A3816B3BDB3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,70 +8781,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>163</v>
+      </c>
+      <c r="D3">
+        <v>163</v>
+      </c>
+      <c r="E3">
+        <v>6806</v>
+      </c>
+      <c r="F3">
+        <v>6643</v>
+      </c>
+      <c r="G3">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <v>6889</v>
+      </c>
+      <c r="F4">
+        <v>6725</v>
+      </c>
+      <c r="G4">
+        <v>84</v>
+      </c>
+      <c r="H4">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45812D3D-A5C4-4DCE-9864-5C98A6BDE592}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.09</v>
+      </c>
+      <c r="E2">
+        <v>0.104</v>
+      </c>
+      <c r="F2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>1E-3</v>
+      </c>
+      <c r="H2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>5.0989E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.2694999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.7352999999999996E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.6652000000000003E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.8361000000000003E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.1050000000000001E-3</v>
+      </c>
+      <c r="H3">
+        <v>7.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3079024</v>
+      </c>
+      <c r="C4">
+        <v>3111520</v>
+      </c>
+      <c r="D4">
+        <v>3079136</v>
+      </c>
+      <c r="E4">
+        <v>5307248</v>
+      </c>
+      <c r="F4">
+        <v>5339824</v>
+      </c>
+      <c r="G4">
+        <v>98272</v>
+      </c>
+      <c r="H4" s="1">
+        <v>65536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA5085-752D-4127-AD27-DBF273C7D8C6}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>162</v>
+      </c>
+      <c r="C3">
+        <v>323</v>
+      </c>
+      <c r="D3">
+        <v>323</v>
+      </c>
+      <c r="E3">
+        <v>26406</v>
+      </c>
+      <c r="F3">
+        <v>26083</v>
+      </c>
+      <c r="G3">
+        <v>26083</v>
+      </c>
+      <c r="H3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>163</v>
+      </c>
+      <c r="C4">
+        <v>324</v>
+      </c>
+      <c r="D4">
+        <v>324</v>
+      </c>
+      <c r="E4">
+        <v>26569</v>
+      </c>
+      <c r="F4">
+        <v>26245</v>
+      </c>
+      <c r="G4">
+        <v>26245</v>
+      </c>
+      <c r="H4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>74</v>
+      </c>
+      <c r="G5">
+        <v>74</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E426B20-2ABE-4E7D-9B7B-2E2746925397}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>84</v>
+      </c>
+      <c r="H2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>244</v>
+      </c>
+      <c r="C3">
+        <v>487</v>
+      </c>
+      <c r="D3">
+        <v>487</v>
+      </c>
+      <c r="E3">
+        <v>59780</v>
+      </c>
+      <c r="F3">
+        <v>59293</v>
+      </c>
+      <c r="G3">
+        <v>487</v>
+      </c>
+      <c r="H3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>245</v>
+      </c>
+      <c r="C4">
+        <v>488</v>
+      </c>
+      <c r="D4">
+        <v>488</v>
+      </c>
+      <c r="E4">
+        <v>60025</v>
+      </c>
+      <c r="F4">
+        <v>59537</v>
+      </c>
+      <c r="G4">
+        <v>488</v>
+      </c>
+      <c r="H4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>280</v>
+      </c>
+      <c r="F5">
+        <v>240</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B626CDD-A8B2-4C25-AD60-8D9084CB2B03}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>159</v>
+      </c>
+      <c r="E2">
+        <v>159</v>
+      </c>
+      <c r="F2">
+        <v>159</v>
+      </c>
+      <c r="G2">
+        <v>159</v>
+      </c>
+      <c r="H2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>472</v>
+      </c>
+      <c r="C3">
+        <v>943</v>
+      </c>
+      <c r="D3">
+        <v>943</v>
+      </c>
+      <c r="E3">
+        <v>223256</v>
+      </c>
+      <c r="F3">
+        <v>222313</v>
+      </c>
+      <c r="G3">
+        <v>223256</v>
+      </c>
+      <c r="H3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>473</v>
+      </c>
+      <c r="C4">
+        <v>944</v>
+      </c>
+      <c r="D4">
+        <v>944</v>
+      </c>
+      <c r="E4">
+        <v>223729</v>
+      </c>
+      <c r="F4">
+        <v>222785</v>
+      </c>
+      <c r="G4">
+        <v>223729</v>
+      </c>
+      <c r="H4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1829</v>
+      </c>
+      <c r="F5">
+        <v>1573</v>
+      </c>
+      <c r="G5">
+        <v>1829</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF5739C-9730-4817-81A0-024743C1B4A9}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>221</v>
+      </c>
+      <c r="C2">
+        <v>221</v>
+      </c>
+      <c r="D2">
+        <v>221</v>
+      </c>
+      <c r="E2">
+        <v>221</v>
+      </c>
+      <c r="F2">
+        <v>221</v>
+      </c>
+      <c r="G2">
+        <v>221</v>
+      </c>
+      <c r="H2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>693</v>
+      </c>
+      <c r="C3">
+        <v>1385</v>
+      </c>
+      <c r="D3">
+        <v>1385</v>
+      </c>
+      <c r="E3">
+        <v>480942</v>
+      </c>
+      <c r="F3">
+        <v>479557</v>
+      </c>
+      <c r="G3">
+        <v>1385</v>
+      </c>
+      <c r="H3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>694</v>
+      </c>
+      <c r="C4">
+        <v>1386</v>
+      </c>
+      <c r="D4">
+        <v>1386</v>
+      </c>
+      <c r="E4">
+        <v>481636</v>
+      </c>
+      <c r="F4">
+        <v>480250</v>
+      </c>
+      <c r="G4">
+        <v>1386</v>
+      </c>
+      <c r="H4">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>5355</v>
+      </c>
+      <c r="F5">
+        <v>4684</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>